--- a/va_facility_data_2025-02-20/Safford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Safford%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Safford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Safford%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0d0139e32e9b40d4bf77140fc3ca488f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R41f8ca28ebce4477b872e585f9f5356f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8d5ee40970394442ae2a62cd69f4d18f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9dcfa78b1e09404aadc0f19a46ee5867"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc8c2239542b240f4971f7c0182ca0b6e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4395f4f655d9409e82391e5dc1911a36"/>
   </x:sheets>
 </x:workbook>
 </file>
